--- a/documents/Chase Test.xlsx
+++ b/documents/Chase Test.xlsx
@@ -735,10 +735,10 @@
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="fff1c1b4"/>
+      <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="fff6be98"/>
       <rgbColor rgb="ffbed4df"/>
       <rgbColor rgb="ffadcdea"/>
-      <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ffd5f8ff"/>
       <rgbColor rgb="ffbcffcd"/>
       <rgbColor rgb="ffd6c5c3"/>
@@ -3675,19 +3675,19 @@
       <c r="D44" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="E44" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="F44" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s" s="9">
+      <c r="E44" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="H44" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="I44" t="s" s="9">
+      <c r="H44" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="I44" t="s" s="10">
         <v>9</v>
       </c>
       <c r="J44" s="4"/>
@@ -3970,14 +3970,14 @@
       <c r="B51" t="s" s="7">
         <v>40</v>
       </c>
-      <c r="C51" t="s" s="10">
+      <c r="C51" t="s" s="11">
         <v>41</v>
       </c>
-      <c r="D51" t="s" s="10">
+      <c r="D51" t="s" s="11">
         <v>42</v>
       </c>
       <c r="E51" t="s" s="10">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s" s="10">
         <v>44</v>
@@ -3986,7 +3986,7 @@
         <v>45</v>
       </c>
       <c r="H51" t="s" s="10">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I51" t="s" s="10">
         <v>41</v>
@@ -4013,25 +4013,25 @@
       <c r="B52" t="s" s="7">
         <v>48</v>
       </c>
-      <c r="C52" t="s" s="10">
+      <c r="C52" t="s" s="11">
         <v>49</v>
       </c>
-      <c r="D52" t="s" s="10">
+      <c r="D52" t="s" s="11">
         <v>50</v>
       </c>
-      <c r="E52" t="s" s="10">
+      <c r="E52" t="s" s="11">
         <v>51</v>
       </c>
-      <c r="F52" t="s" s="10">
+      <c r="F52" t="s" s="11">
         <v>52</v>
       </c>
-      <c r="G52" t="s" s="10">
+      <c r="G52" t="s" s="11">
         <v>53</v>
       </c>
-      <c r="H52" t="s" s="10">
+      <c r="H52" t="s" s="11">
         <v>54</v>
       </c>
-      <c r="I52" t="s" s="10">
+      <c r="I52" t="s" s="11">
         <v>49</v>
       </c>
       <c r="J52" s="4"/>
@@ -4056,25 +4056,25 @@
       <c r="B53" t="s" s="7">
         <v>57</v>
       </c>
-      <c r="C53" t="s" s="10">
+      <c r="C53" t="s" s="11">
         <v>58</v>
       </c>
-      <c r="D53" t="s" s="10">
+      <c r="D53" t="s" s="11">
         <v>59</v>
       </c>
-      <c r="E53" t="s" s="10">
+      <c r="E53" t="s" s="11">
         <v>60</v>
       </c>
-      <c r="F53" t="s" s="10">
+      <c r="F53" t="s" s="11">
         <v>61</v>
       </c>
-      <c r="G53" t="s" s="10">
+      <c r="G53" t="s" s="11">
         <v>62</v>
       </c>
-      <c r="H53" t="s" s="10">
+      <c r="H53" t="s" s="11">
         <v>63</v>
       </c>
-      <c r="I53" t="s" s="10">
+      <c r="I53" t="s" s="11">
         <v>58</v>
       </c>
       <c r="J53" s="4"/>
@@ -4099,25 +4099,25 @@
       <c r="B54" t="s" s="7">
         <v>66</v>
       </c>
-      <c r="C54" t="s" s="10">
+      <c r="C54" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="D54" t="s" s="10">
+      <c r="D54" t="s" s="11">
         <v>24</v>
       </c>
-      <c r="E54" t="s" s="10">
+      <c r="E54" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="F54" t="s" s="10">
+      <c r="F54" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="G54" t="s" s="10">
+      <c r="G54" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="H54" t="s" s="10">
+      <c r="H54" t="s" s="11">
         <v>28</v>
       </c>
-      <c r="I54" t="s" s="10">
+      <c r="I54" t="s" s="11">
         <v>22</v>
       </c>
       <c r="J54" s="4"/>
@@ -4142,25 +4142,25 @@
       <c r="B55" t="s" s="7">
         <v>68</v>
       </c>
-      <c r="C55" t="s" s="10">
+      <c r="C55" t="s" s="11">
         <v>69</v>
       </c>
-      <c r="D55" t="s" s="10">
+      <c r="D55" t="s" s="11">
         <v>70</v>
       </c>
-      <c r="E55" t="s" s="10">
+      <c r="E55" t="s" s="11">
         <v>71</v>
       </c>
-      <c r="F55" t="s" s="10">
+      <c r="F55" t="s" s="11">
         <v>72</v>
       </c>
-      <c r="G55" t="s" s="10">
+      <c r="G55" t="s" s="11">
         <v>73</v>
       </c>
-      <c r="H55" t="s" s="10">
+      <c r="H55" t="s" s="11">
         <v>74</v>
       </c>
-      <c r="I55" t="s" s="10">
+      <c r="I55" t="s" s="11">
         <v>69</v>
       </c>
       <c r="J55" s="4"/>
@@ -4188,22 +4188,22 @@
       <c r="C56" t="s" s="7">
         <v>78</v>
       </c>
-      <c r="D56" t="s" s="11">
+      <c r="D56" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="E56" t="s" s="11">
+      <c r="E56" t="s" s="12">
         <v>80</v>
       </c>
-      <c r="F56" t="s" s="11">
+      <c r="F56" t="s" s="12">
         <v>81</v>
       </c>
-      <c r="G56" t="s" s="11">
+      <c r="G56" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="H56" t="s" s="11">
-        <v>83</v>
-      </c>
-      <c r="I56" t="s" s="11">
+      <c r="H56" t="s" s="10">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s" s="10">
         <v>79</v>
       </c>
       <c r="J56" s="4"/>
@@ -4231,22 +4231,22 @@
       <c r="C57" t="s" s="7">
         <v>78</v>
       </c>
-      <c r="D57" t="s" s="11">
+      <c r="D57" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="E57" t="s" s="11">
+      <c r="E57" t="s" s="12">
         <v>80</v>
       </c>
-      <c r="F57" t="s" s="11">
+      <c r="F57" t="s" s="12">
         <v>81</v>
       </c>
-      <c r="G57" t="s" s="11">
+      <c r="G57" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="H57" t="s" s="11">
+      <c r="H57" t="s" s="12">
         <v>83</v>
       </c>
-      <c r="I57" t="s" s="11">
+      <c r="I57" t="s" s="12">
         <v>79</v>
       </c>
       <c r="J57" s="4"/>
@@ -4274,22 +4274,22 @@
       <c r="C58" t="s" s="7">
         <v>78</v>
       </c>
-      <c r="D58" t="s" s="11">
+      <c r="D58" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="E58" t="s" s="11">
+      <c r="E58" t="s" s="12">
         <v>80</v>
       </c>
-      <c r="F58" t="s" s="11">
+      <c r="F58" t="s" s="12">
         <v>81</v>
       </c>
-      <c r="G58" t="s" s="11">
+      <c r="G58" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="H58" t="s" s="11">
+      <c r="H58" t="s" s="12">
         <v>83</v>
       </c>
-      <c r="I58" t="s" s="11">
+      <c r="I58" t="s" s="12">
         <v>79</v>
       </c>
       <c r="J58" s="4"/>
@@ -4317,22 +4317,22 @@
       <c r="C59" t="s" s="7">
         <v>78</v>
       </c>
-      <c r="D59" t="s" s="11">
+      <c r="D59" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="E59" t="s" s="11">
+      <c r="E59" t="s" s="12">
         <v>80</v>
       </c>
-      <c r="F59" t="s" s="11">
+      <c r="F59" t="s" s="12">
         <v>81</v>
       </c>
-      <c r="G59" t="s" s="11">
+      <c r="G59" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="H59" t="s" s="11">
+      <c r="H59" t="s" s="12">
         <v>83</v>
       </c>
-      <c r="I59" t="s" s="11">
+      <c r="I59" t="s" s="12">
         <v>79</v>
       </c>
       <c r="J59" s="4"/>
@@ -4360,22 +4360,22 @@
       <c r="C60" t="s" s="7">
         <v>89</v>
       </c>
-      <c r="D60" t="s" s="11">
+      <c r="D60" t="s" s="12">
         <v>41</v>
       </c>
-      <c r="E60" t="s" s="11">
+      <c r="E60" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="F60" t="s" s="11">
+      <c r="F60" t="s" s="12">
         <v>44</v>
       </c>
-      <c r="G60" t="s" s="11">
+      <c r="G60" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="H60" t="s" s="11">
+      <c r="H60" t="s" s="12">
         <v>46</v>
       </c>
-      <c r="I60" t="s" s="11">
+      <c r="I60" t="s" s="12">
         <v>41</v>
       </c>
       <c r="J60" s="4"/>
@@ -4403,22 +4403,22 @@
       <c r="C61" t="s" s="7">
         <v>78</v>
       </c>
-      <c r="D61" t="s" s="11">
+      <c r="D61" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="E61" t="s" s="11">
+      <c r="E61" t="s" s="12">
         <v>80</v>
       </c>
-      <c r="F61" t="s" s="11">
+      <c r="F61" t="s" s="12">
         <v>81</v>
       </c>
-      <c r="G61" t="s" s="11">
+      <c r="G61" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="H61" t="s" s="11">
+      <c r="H61" t="s" s="12">
         <v>83</v>
       </c>
-      <c r="I61" t="s" s="11">
+      <c r="I61" t="s" s="12">
         <v>79</v>
       </c>
       <c r="J61" s="4"/>
@@ -4446,22 +4446,22 @@
       <c r="C62" t="s" s="7">
         <v>78</v>
       </c>
-      <c r="D62" t="s" s="11">
+      <c r="D62" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="E62" t="s" s="11">
+      <c r="E62" t="s" s="12">
         <v>80</v>
       </c>
-      <c r="F62" t="s" s="11">
+      <c r="F62" t="s" s="12">
         <v>81</v>
       </c>
-      <c r="G62" t="s" s="11">
+      <c r="G62" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="H62" t="s" s="11">
+      <c r="H62" t="s" s="12">
         <v>83</v>
       </c>
-      <c r="I62" t="s" s="11">
+      <c r="I62" t="s" s="12">
         <v>79</v>
       </c>
       <c r="J62" s="4"/>
@@ -4492,19 +4492,19 @@
       <c r="D63" t="s" s="7">
         <v>96</v>
       </c>
-      <c r="E63" t="s" s="12">
+      <c r="E63" t="s" s="10">
         <v>97</v>
       </c>
-      <c r="F63" t="s" s="13">
-        <v>97</v>
-      </c>
-      <c r="G63" t="s" s="13">
+      <c r="F63" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="G63" t="s" s="10">
         <v>99</v>
       </c>
-      <c r="H63" t="s" s="13">
+      <c r="H63" t="s" s="10">
         <v>100</v>
       </c>
-      <c r="I63" t="s" s="13">
+      <c r="I63" t="s" s="10">
         <v>97</v>
       </c>
       <c r="J63" s="4"/>
@@ -4535,19 +4535,19 @@
       <c r="D64" t="s" s="7">
         <v>104</v>
       </c>
-      <c r="E64" t="s" s="12">
+      <c r="E64" t="s" s="13">
         <v>105</v>
       </c>
-      <c r="F64" t="s" s="12">
+      <c r="F64" t="s" s="13">
         <v>106</v>
       </c>
-      <c r="G64" t="s" s="12">
+      <c r="G64" t="s" s="13">
         <v>107</v>
       </c>
-      <c r="H64" t="s" s="12">
+      <c r="H64" t="s" s="13">
         <v>108</v>
       </c>
-      <c r="I64" t="s" s="12">
+      <c r="I64" t="s" s="13">
         <v>105</v>
       </c>
       <c r="J64" s="4"/>
@@ -4578,19 +4578,19 @@
       <c r="D65" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="E65" t="s" s="12">
+      <c r="E65" t="s" s="13">
         <v>41</v>
       </c>
-      <c r="F65" t="s" s="12">
+      <c r="F65" t="s" s="13">
         <v>44</v>
       </c>
-      <c r="G65" t="s" s="12">
+      <c r="G65" t="s" s="13">
         <v>45</v>
       </c>
-      <c r="H65" t="s" s="12">
+      <c r="H65" t="s" s="13">
         <v>46</v>
       </c>
-      <c r="I65" t="s" s="12">
+      <c r="I65" t="s" s="13">
         <v>41</v>
       </c>
       <c r="J65" s="4"/>
@@ -4621,19 +4621,19 @@
       <c r="D66" t="s" s="7">
         <v>96</v>
       </c>
-      <c r="E66" t="s" s="12">
+      <c r="E66" t="s" s="13">
         <v>97</v>
       </c>
-      <c r="F66" t="s" s="12">
+      <c r="F66" t="s" s="13">
         <v>98</v>
       </c>
-      <c r="G66" t="s" s="12">
+      <c r="G66" t="s" s="13">
         <v>99</v>
       </c>
-      <c r="H66" t="s" s="12">
+      <c r="H66" t="s" s="13">
         <v>100</v>
       </c>
-      <c r="I66" t="s" s="12">
+      <c r="I66" t="s" s="13">
         <v>97</v>
       </c>
       <c r="J66" s="4"/>
@@ -4664,19 +4664,19 @@
       <c r="D67" t="s" s="7">
         <v>96</v>
       </c>
-      <c r="E67" t="s" s="12">
+      <c r="E67" t="s" s="13">
         <v>97</v>
       </c>
-      <c r="F67" t="s" s="12">
+      <c r="F67" t="s" s="13">
         <v>98</v>
       </c>
-      <c r="G67" t="s" s="12">
+      <c r="G67" t="s" s="13">
         <v>99</v>
       </c>
-      <c r="H67" t="s" s="12">
+      <c r="H67" t="s" s="13">
         <v>100</v>
       </c>
-      <c r="I67" t="s" s="12">
+      <c r="I67" t="s" s="13">
         <v>97</v>
       </c>
       <c r="J67" s="4"/>
@@ -4707,19 +4707,19 @@
       <c r="D68" t="s" s="7">
         <v>96</v>
       </c>
-      <c r="E68" t="s" s="12">
+      <c r="E68" t="s" s="13">
         <v>97</v>
       </c>
-      <c r="F68" t="s" s="12">
+      <c r="F68" t="s" s="13">
         <v>98</v>
       </c>
-      <c r="G68" t="s" s="12">
+      <c r="G68" t="s" s="13">
         <v>99</v>
       </c>
-      <c r="H68" t="s" s="12">
+      <c r="H68" t="s" s="13">
         <v>100</v>
       </c>
-      <c r="I68" t="s" s="12">
+      <c r="I68" t="s" s="13">
         <v>97</v>
       </c>
       <c r="J68" s="4"/>
@@ -4750,19 +4750,19 @@
       <c r="D69" t="s" s="7">
         <v>118</v>
       </c>
-      <c r="E69" t="s" s="12">
+      <c r="E69" t="s" s="13">
         <v>119</v>
       </c>
-      <c r="F69" t="s" s="12">
+      <c r="F69" t="s" s="13">
         <v>120</v>
       </c>
-      <c r="G69" t="s" s="12">
+      <c r="G69" t="s" s="13">
         <v>121</v>
       </c>
-      <c r="H69" t="s" s="12">
+      <c r="H69" t="s" s="13">
         <v>122</v>
       </c>
-      <c r="I69" t="s" s="12">
+      <c r="I69" t="s" s="13">
         <v>119</v>
       </c>
       <c r="J69" s="4"/>
@@ -4793,19 +4793,19 @@
       <c r="D70" t="s" s="7">
         <v>127</v>
       </c>
-      <c r="E70" t="s" s="12">
+      <c r="E70" t="s" s="13">
         <v>128</v>
       </c>
-      <c r="F70" t="s" s="12">
+      <c r="F70" t="s" s="13">
         <v>129</v>
       </c>
-      <c r="G70" t="s" s="12">
+      <c r="G70" t="s" s="13">
         <v>130</v>
       </c>
-      <c r="H70" t="s" s="12">
+      <c r="H70" t="s" s="13">
         <v>131</v>
       </c>
-      <c r="I70" t="s" s="12">
+      <c r="I70" t="s" s="13">
         <v>128</v>
       </c>
       <c r="J70" s="4"/>
@@ -4836,19 +4836,19 @@
       <c r="D71" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="E71" t="s" s="12">
+      <c r="E71" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="F71" t="s" s="12">
+      <c r="F71" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="G71" t="s" s="12">
+      <c r="G71" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="H71" t="s" s="12">
+      <c r="H71" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="I71" t="s" s="12">
+      <c r="I71" t="s" s="13">
         <v>22</v>
       </c>
       <c r="J71" s="4"/>
@@ -4879,19 +4879,19 @@
       <c r="D72" t="s" s="7">
         <v>96</v>
       </c>
-      <c r="E72" t="s" s="12">
+      <c r="E72" t="s" s="13">
         <v>97</v>
       </c>
-      <c r="F72" t="s" s="12">
+      <c r="F72" t="s" s="13">
         <v>98</v>
       </c>
-      <c r="G72" t="s" s="12">
+      <c r="G72" t="s" s="13">
         <v>99</v>
       </c>
-      <c r="H72" t="s" s="12">
+      <c r="H72" t="s" s="13">
         <v>100</v>
       </c>
-      <c r="I72" t="s" s="12">
+      <c r="I72" t="s" s="13">
         <v>97</v>
       </c>
       <c r="J72" s="4"/>
@@ -4922,19 +4922,19 @@
       <c r="D73" t="s" s="7">
         <v>118</v>
       </c>
-      <c r="E73" t="s" s="12">
+      <c r="E73" t="s" s="13">
         <v>119</v>
       </c>
-      <c r="F73" t="s" s="12">
+      <c r="F73" t="s" s="13">
         <v>120</v>
       </c>
-      <c r="G73" t="s" s="12">
+      <c r="G73" t="s" s="13">
         <v>121</v>
       </c>
-      <c r="H73" t="s" s="12">
+      <c r="H73" t="s" s="13">
         <v>122</v>
       </c>
-      <c r="I73" t="s" s="12">
+      <c r="I73" t="s" s="13">
         <v>119</v>
       </c>
       <c r="J73" s="4"/>
@@ -4965,19 +4965,19 @@
       <c r="D74" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="E74" t="s" s="12">
+      <c r="E74" t="s" s="13">
         <v>58</v>
       </c>
-      <c r="F74" t="s" s="12">
+      <c r="F74" t="s" s="13">
         <v>61</v>
       </c>
-      <c r="G74" t="s" s="12">
+      <c r="G74" t="s" s="13">
         <v>62</v>
       </c>
-      <c r="H74" t="s" s="12">
+      <c r="H74" t="s" s="13">
         <v>63</v>
       </c>
-      <c r="I74" t="s" s="12">
+      <c r="I74" t="s" s="13">
         <v>58</v>
       </c>
       <c r="J74" s="4"/>
@@ -5011,16 +5011,16 @@
       <c r="E75" t="s" s="7">
         <v>139</v>
       </c>
-      <c r="F75" t="s" s="13">
+      <c r="F75" t="s" s="10">
         <v>128</v>
       </c>
-      <c r="G75" t="s" s="13">
+      <c r="G75" t="s" s="10">
         <v>130</v>
       </c>
-      <c r="H75" t="s" s="13">
-        <v>131</v>
-      </c>
-      <c r="I75" t="s" s="13">
+      <c r="H75" t="s" s="10">
+        <v>128</v>
+      </c>
+      <c r="I75" t="s" s="10">
         <v>128</v>
       </c>
       <c r="J75" s="4"/>
@@ -5146,10 +5146,10 @@
       <c r="G78" t="s" s="15">
         <v>128</v>
       </c>
-      <c r="H78" t="s" s="13">
+      <c r="H78" t="s" s="10">
         <v>128</v>
       </c>
-      <c r="I78" t="s" s="13">
+      <c r="I78" t="s" s="10">
         <v>128</v>
       </c>
       <c r="J78" s="4"/>
@@ -5232,10 +5232,10 @@
       <c r="G80" t="s" s="7">
         <v>62</v>
       </c>
-      <c r="H80" t="s" s="13">
+      <c r="H80" t="s" s="10">
         <v>58</v>
       </c>
-      <c r="I80" t="s" s="13">
+      <c r="I80" t="s" s="10">
         <v>58</v>
       </c>
       <c r="J80" s="4"/>
